--- a/scoresheets/MATCH62.xlsx
+++ b/scoresheets/MATCH62.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,10 +36,10 @@
     <t xml:space="preserve">Players</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr Cool</t>
+    <t xml:space="preserve">El Rey de Rompecabezas (Mr. Cool)</t>
   </si>
   <si>
-    <t xml:space="preserve">La Maestra</t>
+    <t xml:space="preserve">La Maestra (Parker Johnson)</t>
   </si>
   <si>
     <t xml:space="preserve">Team</t>
@@ -857,8 +857,8 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -885,7 +885,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2626,11 +2626,11 @@
       </c>
       <c r="C2" s="6" t="str">
         <f aca="false">Category!C2</f>
-        <v>Mr Cool</v>
+        <v>El Rey de Rompecabezas (Mr. Cool)</v>
       </c>
       <c r="D2" s="7" t="str">
         <f aca="false">Category!D2</f>
-        <v>La Maestra</v>
+        <v>La Maestra (Parker Johnson)</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
@@ -3394,7 +3394,7 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3639,7 +3639,7 @@
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="71" t="str">
         <f aca="false">Category!C2</f>
-        <v>Mr Cool</v>
+        <v>El Rey de Rompecabezas (Mr. Cool)</v>
       </c>
       <c r="B2" s="72" t="n">
         <f aca="false">3*C2+2*D2</f>
@@ -3657,7 +3657,7 @@
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="75" t="str">
         <f aca="false">Category!D2</f>
-        <v>La Maestra</v>
+        <v>La Maestra (Parker Johnson)</v>
       </c>
       <c r="B3" s="76" t="n">
         <f aca="false">3*C3+2*D3</f>
